--- a/data/134/DEUSTATIS/Foreign trade - SITC2 codes_historical.xlsx
+++ b/data/134/DEUSTATIS/Foreign trade - SITC2 codes_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:XA3"/>
+  <dimension ref="A1:XM3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3487,6 +3487,66 @@
           <t>2021-12</t>
         </is>
       </c>
+      <c r="XB1" s="1" t="inlineStr">
+        <is>
+          <t>2022-01</t>
+        </is>
+      </c>
+      <c r="XC1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
+        </is>
+      </c>
+      <c r="XD1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
+      <c r="XE1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04</t>
+        </is>
+      </c>
+      <c r="XF1" s="1" t="inlineStr">
+        <is>
+          <t>2022-05</t>
+        </is>
+      </c>
+      <c r="XG1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
+      <c r="XH1" s="1" t="inlineStr">
+        <is>
+          <t>2022-07</t>
+        </is>
+      </c>
+      <c r="XI1" s="1" t="inlineStr">
+        <is>
+          <t>2022-08</t>
+        </is>
+      </c>
+      <c r="XJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022-09</t>
+        </is>
+      </c>
+      <c r="XK1" s="1" t="inlineStr">
+        <is>
+          <t>2022-10</t>
+        </is>
+      </c>
+      <c r="XL1" s="1" t="inlineStr">
+        <is>
+          <t>2022-11</t>
+        </is>
+      </c>
+      <c r="XM1" s="1" t="inlineStr">
+        <is>
+          <t>2022-12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5340,28 +5400,46 @@
         <v>1421.098</v>
       </c>
       <c r="WS2" t="n">
-        <v>1226.41</v>
+        <v>1225.028</v>
       </c>
       <c r="WT2" t="n">
-        <v>1435.677</v>
+        <v>1435.301</v>
       </c>
       <c r="WU2" t="n">
-        <v>1529.098</v>
+        <v>1539.135</v>
       </c>
       <c r="WV2" t="n">
-        <v>1600.928</v>
+        <v>1613.514</v>
       </c>
       <c r="WW2" t="n">
-        <v>1673.641</v>
+        <v>1691.532</v>
       </c>
       <c r="WX2" t="n">
-        <v>1656.319</v>
+        <v>1720.797</v>
       </c>
       <c r="WY2" t="n">
-        <v>1781.737</v>
-      </c>
-      <c r="WZ2" t="inlineStr"/>
-      <c r="XA2" t="inlineStr"/>
+        <v>1782.836</v>
+      </c>
+      <c r="WZ2" t="n">
+        <v>1805.796</v>
+      </c>
+      <c r="XA2" t="n">
+        <v>1724.419</v>
+      </c>
+      <c r="XB2" t="n">
+        <v>1804.659</v>
+      </c>
+      <c r="XC2" t="inlineStr"/>
+      <c r="XD2" t="inlineStr"/>
+      <c r="XE2" t="inlineStr"/>
+      <c r="XF2" t="inlineStr"/>
+      <c r="XG2" t="inlineStr"/>
+      <c r="XH2" t="inlineStr"/>
+      <c r="XI2" t="inlineStr"/>
+      <c r="XJ2" t="inlineStr"/>
+      <c r="XK2" t="inlineStr"/>
+      <c r="XL2" t="inlineStr"/>
+      <c r="XM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -7215,28 +7293,46 @@
         <v>3873.144</v>
       </c>
       <c r="WS3" t="n">
-        <v>3919.476</v>
+        <v>3919.927</v>
       </c>
       <c r="WT3" t="n">
-        <v>4469.562</v>
+        <v>4470.844</v>
       </c>
       <c r="WU3" t="n">
-        <v>4338.392</v>
+        <v>4357.701</v>
       </c>
       <c r="WV3" t="n">
-        <v>4789.761</v>
+        <v>4802.55</v>
       </c>
       <c r="WW3" t="n">
-        <v>4886.938</v>
+        <v>4902.49</v>
       </c>
       <c r="WX3" t="n">
-        <v>5158.922</v>
+        <v>5170.658</v>
       </c>
       <c r="WY3" t="n">
-        <v>5383.571</v>
-      </c>
-      <c r="WZ3" t="inlineStr"/>
-      <c r="XA3" t="inlineStr"/>
+        <v>5387.927</v>
+      </c>
+      <c r="WZ3" t="n">
+        <v>5963.172</v>
+      </c>
+      <c r="XA3" t="n">
+        <v>5591.988</v>
+      </c>
+      <c r="XB3" t="n">
+        <v>5956.812</v>
+      </c>
+      <c r="XC3" t="inlineStr"/>
+      <c r="XD3" t="inlineStr"/>
+      <c r="XE3" t="inlineStr"/>
+      <c r="XF3" t="inlineStr"/>
+      <c r="XG3" t="inlineStr"/>
+      <c r="XH3" t="inlineStr"/>
+      <c r="XI3" t="inlineStr"/>
+      <c r="XJ3" t="inlineStr"/>
+      <c r="XK3" t="inlineStr"/>
+      <c r="XL3" t="inlineStr"/>
+      <c r="XM3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
